--- a/Z ISM OLSS Operation/OLSS Business Development/Schema/Business Process OLSS.xlsx
+++ b/Z ISM OLSS Operation/OLSS Business Development/Schema/Business Process OLSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Z ISM OLSS Operation\OLSS Business Development\Schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605D215A-BB05-424B-B007-7D66AEABC190}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831440EF-1A1E-4E20-9AC6-48C1C0F1E602}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="15" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Process" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="Issue Log Daily" sheetId="8" state="hidden" r:id="rId15"/>
     <sheet name="Question" sheetId="13" r:id="rId16"/>
     <sheet name="Design" sheetId="9" r:id="rId17"/>
-    <sheet name="Perbaikan pada calculation" sheetId="10" r:id="rId18"/>
+    <sheet name="Perbaikan pada calculation" sheetId="22" r:id="rId18"/>
     <sheet name="Perbaikan pada Quotation" sheetId="11" r:id="rId19"/>
     <sheet name="Journal" sheetId="21" r:id="rId20"/>
   </sheets>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="521">
   <si>
     <t>No</t>
   </si>
@@ -1065,45 +1065,9 @@
     <t>5. Penambahan residual value untuk masing-masing product (jika terdapat lebih dari satu product)</t>
   </si>
   <si>
-    <t>Maintenance Type</t>
-  </si>
-  <si>
-    <t>Full Maintenance</t>
-  </si>
-  <si>
-    <t>Limited</t>
-  </si>
-  <si>
-    <t>Customer Service Desk</t>
-  </si>
-  <si>
-    <t>Non Maintenance</t>
-  </si>
-  <si>
-    <t>Maintenance Condition Type</t>
-  </si>
-  <si>
-    <t>Full Maintenance Contract Handle by Third Party</t>
-  </si>
-  <si>
-    <t>Full Maintenance Contract Handle by DSF</t>
-  </si>
-  <si>
     <t>1. Jika ingin dilakukan lebih dari satu unit bisa. Pada calculation step 1 &amp; 2 ditambahkan opsi pilihan beberapa product dan harga per product. Namun dalam perhitungan akan digabungkan
 (hanya saja ROA tidak dapat dilihat dalam masing-masing product)
 2. Pembuatan Calculation tidak harus 6 step. Bisa diringkas sesuai dengan kebutuhan OPL DSF</t>
-  </si>
-  <si>
-    <t>CSD Maintenance Contract Handle by Third Party</t>
-  </si>
-  <si>
-    <t>CSD Maintenance Contract Handle by DSF</t>
-  </si>
-  <si>
-    <t>Disable</t>
-  </si>
-  <si>
-    <t>6. Penambahan opsi maintenance untuk masing-masing jenis product</t>
   </si>
   <si>
     <t>00551/OCN/01/11/2021 contoh data</t>
@@ -1208,13 +1172,6 @@
   </si>
   <si>
     <t>a. Art.23 Receipt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. Pada step 3 bisa dihilangkan (?) dan digabung ke step 1. Flownya adalah pilih maintenance typenya kemudian maintenance condition dan isi nilai maintenance
-(Field Full &amp; CSD Maintenance contract handle by third party digabung menjadi field 'Maintenance Amount' apakah ada impact jika dilakukan seperti ini?) </t>
-  </si>
-  <si>
-    <t>8. TOP mode free text (?) ada pengaruh ke generate invoice tidak? Penerbitan invoice melihat dr tanggal apa? CEK !!</t>
   </si>
   <si>
     <t>SKD</t>
@@ -2907,7 +2864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -2955,9 +2912,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3104,47 +3058,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3164,16 +3082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3181,6 +3090,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3190,6 +3108,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10131,23 +10085,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>244250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>68708</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>34700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>59183</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945E39E6-1799-4AC9-8E8D-7C5621D9F9BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10170,8 +10124,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19050" y="581025"/>
-          <a:ext cx="11198000" cy="5772860"/>
+          <a:off x="381000" y="762000"/>
+          <a:ext cx="11274200" cy="5774183"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10199,23 +10153,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>160073</xdr:rowOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>10584</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>96574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25537C95-398F-46B8-B27F-EFABD987EB0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10230,8 +10184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11477625" y="634999"/>
-          <a:ext cx="4699000" cy="6000751"/>
+          <a:off x="11811000" y="762000"/>
+          <a:ext cx="4773084" cy="6002074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10249,23 +10203,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>35717</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>282730</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>108031</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>92229</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>72314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000004000000}"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4F3291-A76F-4C70-B53F-E5E6D976A68E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10288,8 +10242,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1" y="6881811"/>
-          <a:ext cx="11212667" cy="5596814"/>
+          <a:off x="381000" y="7048500"/>
+          <a:ext cx="11331729" cy="5596814"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10317,23 +10271,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>231964</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>75355</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>41464</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>99167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000005000000}"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AABF9ED5-50B7-4E5B-A5E5-871EB37DC85F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10356,13 +10310,20 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="12730163"/>
-          <a:ext cx="11204764" cy="4480667"/>
+          <a:off x="381000" y="12954000"/>
+          <a:ext cx="11280964" cy="4480667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -10378,23 +10339,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>46905</xdr:rowOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>61193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000006000000}"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F5ABC2-4778-4E8C-8FB4-6CD9A7278F65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10409,35 +10370,42 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17502187"/>
-          <a:ext cx="11201400" cy="5776193"/>
+          <a:off x="381000" y="17716500"/>
+          <a:ext cx="11277600" cy="5776193"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>442166</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>170250</xdr:rowOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>61166</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>11500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000007000000}"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F94E6A-4D38-4ED6-A97B-28BE6D9269CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10460,13 +10428,20 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="23764875"/>
-          <a:ext cx="11300666" cy="4774000"/>
+          <a:off x="381000" y="23622000"/>
+          <a:ext cx="11491166" cy="4774000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -10482,23 +10457,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>19928</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>122052</xdr:rowOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>185553</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000008000000}"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE3A051-FAFA-4E71-B0B9-A1DDE4EFAC0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10521,13 +10496,20 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="30035499"/>
+          <a:off x="381000" y="28575000"/>
           <a:ext cx="11068928" cy="2090553"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -54605,7 +54587,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B1" s="7"/>
     </row>
@@ -54614,7 +54596,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -54686,7 +54668,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -54697,7 +54679,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -54708,14 +54690,14 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -54730,18 +54712,18 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>6</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -54752,7 +54734,7 @@
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B19" s="7"/>
     </row>
@@ -54761,7 +54743,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -54769,7 +54751,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
         <v>89</v>
@@ -54777,32 +54759,32 @@
     </row>
     <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
-      <c r="B23" s="21" t="s">
-        <v>276</v>
+      <c r="B23" s="20" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -54810,7 +54792,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C28" t="s">
         <v>89</v>
@@ -54819,19 +54801,19 @@
     <row r="29" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -54839,7 +54821,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
@@ -54848,54 +54830,54 @@
     <row r="33" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>4</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>283</v>
+      <c r="B36" s="22" t="s">
+        <v>271</v>
       </c>
       <c r="C36" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
-      <c r="B37" s="20" t="s">
-        <v>294</v>
+      <c r="B37" s="19" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
-      <c r="B38" s="20" t="s">
-        <v>295</v>
+      <c r="B38" s="19" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
-      <c r="B39" s="22" t="s">
-        <v>296</v>
+      <c r="B39" s="21" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
-      <c r="B40" s="28" t="s">
-        <v>297</v>
+      <c r="B40" s="27" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:3" collapsed="1" x14ac:dyDescent="0.25">
@@ -54903,28 +54885,28 @@
         <v>5</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C41" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:3" collapsed="1" x14ac:dyDescent="0.25">
@@ -54932,13 +54914,13 @@
         <v>6</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -54946,7 +54928,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -54954,7 +54936,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -54962,10 +54944,10 @@
         <v>9</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C49" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -54984,17 +54966,17 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -55033,102 +55015,102 @@
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>306</v>
+      <c r="B2" s="23" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
+      <c r="B3" s="23"/>
       <c r="C3" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="23"/>
       <c r="C4" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
+      <c r="B5" s="23"/>
       <c r="D5" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
+      <c r="B6" s="23"/>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="C8" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
+      <c r="B9" s="23"/>
       <c r="D9" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
+      <c r="B10" s="23"/>
       <c r="D10" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
+      <c r="B11" s="23"/>
       <c r="D11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
+      <c r="B13" s="23"/>
       <c r="D13" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
+      <c r="B14" s="23"/>
       <c r="D14" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
+      <c r="B15" s="23"/>
       <c r="D15" t="s">
         <v>156</v>
       </c>
@@ -55140,37 +55122,37 @@
     </row>
     <row r="17" spans="3:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="3:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="3:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="3:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="3:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="3:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="3:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="3:5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -55185,42 +55167,42 @@
     </row>
     <row r="26" spans="3:5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="3:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="3:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="3:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="3:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="3:5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="3:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -55235,57 +55217,57 @@
     </row>
     <row r="36" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="3:9" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
+      <c r="C38" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -55294,224 +55276,224 @@
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
+      <c r="C47" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
     </row>
     <row r="48" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D48" s="6" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D49" s="6" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D50" s="6" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D51" s="6" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
+      <c r="D52" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
     </row>
     <row r="53" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
+      <c r="D53" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
     </row>
     <row r="54" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="31"/>
-      <c r="E54" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
     </row>
     <row r="55" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="31"/>
-      <c r="E55" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="31"/>
-      <c r="E56" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
     </row>
     <row r="57" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
+      <c r="D57" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
+      <c r="C58" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
     </row>
     <row r="59" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D59" s="6" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E60" s="6" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F61" s="6" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F62" s="6" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F63" s="6" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E64" s="6" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="3:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E65" s="6" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="3:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D66" s="6" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="3:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D67" s="6" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="3:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E68" s="6" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="3:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E69" s="6" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="3:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D70" s="6" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="3:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D71" s="6" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="3:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D72" s="6" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="3:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E73" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="L73" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="29"/>
-      <c r="T73" s="29"/>
-      <c r="U73" s="29"/>
+        <v>338</v>
+      </c>
+      <c r="L73" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="28"/>
     </row>
     <row r="74" spans="3:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E74" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="L74" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="29"/>
-      <c r="U74" s="29"/>
+        <v>339</v>
+      </c>
+      <c r="L74" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="28"/>
+      <c r="T74" s="28"/>
+      <c r="U74" s="28"/>
     </row>
     <row r="75" spans="3:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="76" spans="3:21" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D76" s="31" t="s">
-        <v>328</v>
+      <c r="D76" s="30" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="3:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="78" spans="3:21" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -55520,210 +55502,210 @@
       </c>
     </row>
     <row r="79" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C79" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
+      <c r="C79" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
     </row>
     <row r="80" spans="3:21" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D80" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
+      <c r="D80" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
     </row>
     <row r="81" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
+      <c r="D81" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
     </row>
     <row r="82" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D82" s="31"/>
-      <c r="E82" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
     </row>
     <row r="83" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D83" s="31"/>
-      <c r="E83" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
     </row>
     <row r="84" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D84" s="6" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D85" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E86" s="6" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D87" s="30" t="s">
-        <v>393</v>
+      <c r="D87" s="29" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E88" s="6" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E89" s="6" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="90" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E90" s="6" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="91" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D91" s="31" t="s">
-        <v>328</v>
+      <c r="D91" s="30" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D92" s="6" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
     </row>
     <row r="94" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D94" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
+      <c r="D94" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
     </row>
     <row r="95" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" spans="3:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="98" spans="3:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="3:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="101" spans="3:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="102" spans="3:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="3:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="104" spans="3:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" spans="3:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106" spans="3:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D106" s="31" t="s">
-        <v>392</v>
+      <c r="D106" s="30" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="3:4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="3:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="109" spans="3:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="110" spans="3:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="3:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="112" spans="3:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -55756,7 +55738,7 @@
   <cols>
     <col min="1" max="4" width="2.85546875" customWidth="1"/>
     <col min="10" max="22" width="2.85546875" customWidth="1"/>
-    <col min="53" max="53" width="9.140625" style="35"/>
+    <col min="53" max="53" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="53:53" x14ac:dyDescent="0.25">
@@ -55825,23 +55807,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="74"/>
+      <c r="D1" s="100"/>
       <c r="E1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
       <c r="C2" s="2" t="s">
         <v>125</v>
       </c>
@@ -55880,21 +55862,21 @@
         <v>134</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>495</v>
+      <c r="B5" s="18" t="s">
+        <v>481</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -55917,11 +55899,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="1" max="1" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -55932,256 +55914,256 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="11" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="25">
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="25">
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+      <c r="A15" s="25">
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="24">
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="24">
         <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="24">
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="24">
         <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="24">
         <v>16</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>533</v>
+      <c r="B20" s="31" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
-        <v>534</v>
+      <c r="B21" s="31" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="24">
         <v>17</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="24">
         <v>18</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="24">
         <v>19</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25" s="24">
         <v>20</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="24">
         <v>21</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>408</v>
+      <c r="B26" s="31" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="24">
         <v>22</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
+      <c r="A28" s="33">
         <v>23</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="33">
         <v>24</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="24">
         <v>25</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="A31" s="24">
         <v>26</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="A32" s="24">
         <v>27</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
+      <c r="A33" s="24">
         <v>28</v>
       </c>
-      <c r="B33" s="32" t="s">
-        <v>501</v>
+      <c r="B33" s="31" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="24">
         <v>30</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -56215,14 +56197,14 @@
       <c r="C2" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75" t="s">
+      <c r="E2" s="101"/>
+      <c r="F2" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="75"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D3" s="16" t="s">
@@ -56246,7 +56228,7 @@
         <v>162</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="3:27" ht="30" x14ac:dyDescent="0.25">
@@ -56288,7 +56270,7 @@
         <v>243</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="3:27" ht="30" x14ac:dyDescent="0.25">
@@ -56298,7 +56280,7 @@
     </row>
     <row r="12" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -56311,133 +56293,56 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:AD141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D21488-7656-4C11-B49D-5D483245FEE9}">
+  <dimension ref="B2:CK20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Y4" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="28" max="28" width="63.85546875" customWidth="1"/>
-    <col min="29" max="29" width="29.140625" customWidth="1"/>
-    <col min="30" max="30" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="64.140625" customWidth="1"/>
+    <col min="1" max="16384" width="2.85546875" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>268</v>
+    <row r="2" spans="2:89" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="2:89" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="AB10" s="8" t="s">
+    <row r="13" spans="2:89" x14ac:dyDescent="0.25">
+      <c r="CK13" s="83" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="AB11" s="18" t="s">
+    <row r="14" spans="2:89" x14ac:dyDescent="0.25">
+      <c r="CK14" s="83" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="105" x14ac:dyDescent="0.25">
-      <c r="AB12" s="8" t="s">
+    <row r="15" spans="2:89" x14ac:dyDescent="0.25">
+      <c r="CK15" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="AC12" s="14" t="s">
+    </row>
+    <row r="17" spans="89:89" x14ac:dyDescent="0.25">
+      <c r="CK17" s="83" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="28:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="AB34" s="8" t="s">
+    <row r="19" spans="89:89" x14ac:dyDescent="0.25">
+      <c r="CK19" s="83" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="28:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="AB35" s="8" t="s">
+    <row r="20" spans="89:89" x14ac:dyDescent="0.25">
+      <c r="CK20" s="83" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="120" spans="28:30" x14ac:dyDescent="0.25">
-      <c r="AB120" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC120" t="s">
-        <v>255</v>
-      </c>
-      <c r="AD120" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="121" spans="28:30" x14ac:dyDescent="0.25">
-      <c r="AC121" t="s">
-        <v>256</v>
-      </c>
-      <c r="AD121" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="122" spans="28:30" x14ac:dyDescent="0.25">
-      <c r="AD122" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="123" spans="28:30" x14ac:dyDescent="0.25">
-      <c r="AC123" t="s">
-        <v>257</v>
-      </c>
-      <c r="AD123" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="124" spans="28:30" x14ac:dyDescent="0.25">
-      <c r="AD124" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="125" spans="28:30" x14ac:dyDescent="0.25">
-      <c r="AD125" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="126" spans="28:30" x14ac:dyDescent="0.25">
-      <c r="AD126" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="127" spans="28:30" x14ac:dyDescent="0.25">
-      <c r="AC127" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD127" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="128" spans="28:30" x14ac:dyDescent="0.25">
-      <c r="AD128" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="129" spans="28:30" x14ac:dyDescent="0.25">
-      <c r="AC129" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD129" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="131" spans="28:30" ht="90" x14ac:dyDescent="0.25">
-      <c r="AB131" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="141" spans="28:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="AB141" s="8" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -56482,16 +56387,16 @@
   <sheetData>
     <row r="1" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>136</v>
@@ -56513,1360 +56418,1360 @@
       </c>
     </row>
     <row r="2" spans="2:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
-        <v>506</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>511</v>
-      </c>
-      <c r="D2" s="78" t="s">
+      <c r="B2" s="84" t="s">
+        <v>492</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>497</v>
+      </c>
+      <c r="D2" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="82"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="2:11" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B3" s="83"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="80" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="82"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="B4" s="83"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="80" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="82"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="2:11" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="B5" s="83"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="80" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="82"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="2:11" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="B6" s="83"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="88" t="s">
+      <c r="B6" s="85"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="82"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="2:11" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="83"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80" t="s">
+      <c r="B7" s="85"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="2:11" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B8" s="83"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="82"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="2:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="83"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="82"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="74"/>
     </row>
     <row r="10" spans="2:11" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B10" s="83"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="88" t="s">
+      <c r="B10" s="85"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="80" t="s">
+      <c r="G10" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="82"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="74"/>
     </row>
     <row r="11" spans="2:11" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B11" s="83"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="80" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="80" t="s">
+      <c r="G11" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="82"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="74"/>
     </row>
     <row r="12" spans="2:11" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="B12" s="83"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="80" t="s">
+      <c r="B12" s="85"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="80" t="s">
+      <c r="G12" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="74"/>
     </row>
     <row r="13" spans="2:11" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="B13" s="83"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="80" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="74"/>
     </row>
     <row r="14" spans="2:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B14" s="83"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="88" t="s">
+      <c r="B14" s="85"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="89" t="s">
-        <v>522</v>
-      </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
+      <c r="E14" s="76" t="s">
+        <v>508</v>
+      </c>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="74"/>
     </row>
     <row r="15" spans="2:11" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="B15" s="83"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="88" t="s">
+      <c r="B15" s="85"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="90" t="s">
+      <c r="E15" s="74"/>
+      <c r="F15" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="G15" s="80" t="s">
+      <c r="G15" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="74"/>
     </row>
     <row r="16" spans="2:11" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="83"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="90" t="s">
+      <c r="B16" s="85"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="80" t="s">
+      <c r="G16" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="74"/>
     </row>
     <row r="17" spans="2:11" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B17" s="83"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="90" t="s">
+      <c r="B17" s="85"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="74"/>
     </row>
     <row r="18" spans="2:11" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B18" s="83"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="88" t="s">
+      <c r="B18" s="85"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="80" t="s">
+      <c r="E18" s="76"/>
+      <c r="F18" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="G18" s="80" t="s">
+      <c r="G18" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="74"/>
     </row>
     <row r="19" spans="2:11" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B19" s="83"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="80" t="s">
+      <c r="B19" s="85"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="G19" s="80" t="s">
+      <c r="G19" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="74"/>
     </row>
     <row r="20" spans="2:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="83"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="80" t="s">
+      <c r="B20" s="85"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="G20" s="80" t="s">
+      <c r="G20" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="82"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="74"/>
     </row>
     <row r="21" spans="2:11" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="B21" s="83"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="88" t="s">
+      <c r="B21" s="85"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="91" t="s">
+      <c r="E21" s="76"/>
+      <c r="F21" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="G21" s="80" t="s">
+      <c r="G21" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="82"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="74"/>
     </row>
     <row r="22" spans="2:11" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B22" s="83"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="91" t="s">
+      <c r="B22" s="85"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="G22" s="80" t="s">
+      <c r="G22" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="82"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="74"/>
     </row>
     <row r="23" spans="2:11" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="B23" s="83"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="88" t="s">
+      <c r="B23" s="85"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="89"/>
-      <c r="F23" s="80" t="s">
+      <c r="E23" s="76"/>
+      <c r="F23" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="G23" s="80" t="s">
+      <c r="G23" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="82"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="74"/>
     </row>
     <row r="24" spans="2:11" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B24" s="83"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="80" t="s">
+      <c r="B24" s="85"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="G24" s="80" t="s">
+      <c r="G24" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="82"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="74"/>
     </row>
     <row r="25" spans="2:11" s="6" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="B25" s="83"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="80" t="s">
+      <c r="B25" s="85"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="G25" s="80" t="s">
+      <c r="G25" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="82"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="74"/>
     </row>
     <row r="26" spans="2:11" s="6" customFormat="1" ht="240" x14ac:dyDescent="0.25">
-      <c r="B26" s="83"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="88" t="s">
+      <c r="B26" s="85"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="89"/>
-      <c r="F26" s="80" t="s">
+      <c r="E26" s="76"/>
+      <c r="F26" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="82"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="74"/>
     </row>
     <row r="27" spans="2:11" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="B27" s="83"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="80" t="s">
+      <c r="B27" s="85"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="G27" s="80" t="s">
+      <c r="G27" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="H27" s="81"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="82"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="74"/>
     </row>
     <row r="28" spans="2:11" s="6" customFormat="1" ht="240" x14ac:dyDescent="0.25">
-      <c r="B28" s="83"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="80" t="s">
+      <c r="B28" s="85"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="G28" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="H28" s="81"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="82"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="74"/>
     </row>
     <row r="29" spans="2:11" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="B29" s="83"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="80" t="s">
+      <c r="B29" s="85"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="G29" s="80" t="s">
+      <c r="G29" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="H29" s="81"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="82"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="74"/>
     </row>
     <row r="30" spans="2:11" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="B30" s="83"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="80" t="s">
+      <c r="B30" s="85"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="G30" s="80" t="s">
+      <c r="G30" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="H30" s="81"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="82"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="31" spans="2:11" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="B31" s="83"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="80" t="s">
+      <c r="B31" s="85"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="G31" s="80" t="s">
+      <c r="G31" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="H31" s="81"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="82"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="74"/>
     </row>
     <row r="32" spans="2:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="B32" s="83"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94" t="s">
+      <c r="B32" s="85"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="95"/>
-      <c r="F32" s="96" t="s">
+      <c r="E32" s="86"/>
+      <c r="F32" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="G32" s="96" t="s">
+      <c r="G32" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="H32" s="81"/>
-      <c r="I32" s="97" t="s">
+      <c r="H32" s="91"/>
+      <c r="I32" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="98" t="s">
+      <c r="J32" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="K32" s="99"/>
+      <c r="K32" s="83"/>
     </row>
     <row r="33" spans="2:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B33" s="83"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="96" t="s">
+      <c r="B33" s="85"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="G33" s="96" t="s">
+      <c r="G33" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="H33" s="81"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="98" t="s">
+      <c r="H33" s="91"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="K33" s="99"/>
+      <c r="K33" s="83"/>
     </row>
     <row r="34" spans="2:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="B34" s="83"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="96" t="s">
+      <c r="B34" s="85"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="G34" s="96" t="s">
+      <c r="G34" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="H34" s="81"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="98" t="s">
+      <c r="H34" s="91"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="K34" s="99"/>
+      <c r="K34" s="83"/>
     </row>
     <row r="35" spans="2:11" ht="210" x14ac:dyDescent="0.25">
-      <c r="B35" s="83"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="96" t="s">
+      <c r="B35" s="85"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="G35" s="96" t="s">
+      <c r="G35" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="H35" s="81"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="98" t="s">
+      <c r="H35" s="91"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="K35" s="99"/>
+      <c r="K35" s="83"/>
     </row>
     <row r="36" spans="2:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="B36" s="83"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="96" t="s">
+      <c r="B36" s="85"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="G36" s="96" t="s">
+      <c r="G36" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="H36" s="81"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="98" t="s">
+      <c r="H36" s="91"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="99"/>
+      <c r="K36" s="83"/>
     </row>
     <row r="37" spans="2:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="B37" s="83"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="96" t="s">
+      <c r="B37" s="85"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="G37" s="96" t="s">
+      <c r="G37" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="H37" s="81"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="98" t="s">
+      <c r="H37" s="91"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="K37" s="99"/>
+      <c r="K37" s="83"/>
     </row>
     <row r="38" spans="2:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="B38" s="83"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="96" t="s">
+      <c r="B38" s="85"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="G38" s="96" t="s">
+      <c r="G38" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="H38" s="81"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="99"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="83"/>
     </row>
     <row r="39" spans="2:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="B39" s="83"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="96" t="s">
+      <c r="B39" s="85"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="G39" s="96" t="s">
+      <c r="G39" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="H39" s="81"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="99"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="83"/>
     </row>
     <row r="40" spans="2:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="B40" s="83"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="96" t="s">
+      <c r="B40" s="85"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="G40" s="96" t="s">
+      <c r="G40" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="H40" s="81"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="99"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="83"/>
     </row>
     <row r="41" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B41" s="83"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="96" t="s">
+      <c r="B41" s="85"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="G41" s="96" t="s">
+      <c r="G41" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="H41" s="81"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="99"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="83"/>
     </row>
     <row r="42" spans="2:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B42" s="83"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="96" t="s">
+      <c r="B42" s="85"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="G42" s="96" t="s">
+      <c r="G42" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="H42" s="81"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="99"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="83"/>
     </row>
     <row r="43" spans="2:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="B43" s="83"/>
-      <c r="C43" s="95" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="90" t="s">
+      <c r="B43" s="85"/>
+      <c r="C43" s="86" t="s">
+        <v>498</v>
+      </c>
+      <c r="D43" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="96" t="s">
+      <c r="E43" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="F43" s="96" t="s">
+      <c r="F43" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="G43" s="96" t="s">
+      <c r="G43" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="H43" s="81"/>
-      <c r="I43" s="97" t="s">
+      <c r="H43" s="91"/>
+      <c r="I43" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="J43" s="97" t="s">
+      <c r="J43" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="K43" s="99"/>
+      <c r="K43" s="83"/>
     </row>
     <row r="44" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B44" s="83"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96" t="s">
+      <c r="B44" s="85"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="G44" s="96" t="s">
+      <c r="G44" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="H44" s="81"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="99"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="83"/>
     </row>
     <row r="45" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B45" s="83"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96" t="s">
+      <c r="B45" s="85"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="G45" s="96" t="s">
+      <c r="G45" s="81" t="s">
         <v>234</v>
       </c>
-      <c r="H45" s="81"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="99"/>
+      <c r="H45" s="91"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="83"/>
     </row>
     <row r="46" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B46" s="83"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96" t="s">
+      <c r="B46" s="85"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81" t="s">
         <v>230</v>
       </c>
-      <c r="G46" s="96" t="s">
+      <c r="G46" s="81" t="s">
         <v>235</v>
       </c>
-      <c r="H46" s="81"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="99"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="83"/>
     </row>
     <row r="47" spans="2:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="B47" s="83"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96" t="s">
+      <c r="B47" s="85"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="G47" s="96" t="s">
+      <c r="G47" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="H47" s="81"/>
-      <c r="I47" s="97"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="99"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="83"/>
     </row>
     <row r="48" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="83"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="90" t="s">
+      <c r="B48" s="85"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="96" t="s">
+      <c r="E48" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="97"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="99"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="83"/>
     </row>
     <row r="49" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B49" s="83"/>
-      <c r="C49" s="95" t="s">
-        <v>513</v>
-      </c>
-      <c r="D49" s="90" t="s">
+      <c r="B49" s="85"/>
+      <c r="C49" s="86" t="s">
+        <v>499</v>
+      </c>
+      <c r="D49" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="96" t="s">
+      <c r="E49" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="97" t="s">
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="J49" s="97" t="s">
+      <c r="J49" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="99"/>
+      <c r="K49" s="83"/>
     </row>
     <row r="50" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B50" s="83"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="90" t="s">
+      <c r="B50" s="85"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="96" t="s">
+      <c r="E50" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="99"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="83"/>
     </row>
     <row r="51" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B51" s="83"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="80" t="s">
+      <c r="B51" s="85"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="96" t="s">
+      <c r="E51" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="99"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="83"/>
     </row>
     <row r="52" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="83"/>
-      <c r="C52" s="95" t="s">
-        <v>514</v>
-      </c>
-      <c r="D52" s="80" t="s">
+      <c r="B52" s="85"/>
+      <c r="C52" s="86" t="s">
+        <v>500</v>
+      </c>
+      <c r="D52" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="98" t="s">
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="J52" s="98"/>
-      <c r="K52" s="99"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="83"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="83"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="80" t="s">
+      <c r="B53" s="85"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="98" t="s">
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="J53" s="98"/>
-      <c r="K53" s="99"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="83"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="83"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="80" t="s">
+      <c r="B54" s="85"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="98" t="s">
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="J54" s="98"/>
-      <c r="K54" s="99"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="83"/>
     </row>
     <row r="55" spans="2:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B55" s="83"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="93" t="s">
+      <c r="B55" s="85"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="E55" s="96" t="s">
+      <c r="E55" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="98"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="99"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="83"/>
     </row>
     <row r="56" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B56" s="95" t="s">
-        <v>505</v>
-      </c>
-      <c r="C56" s="95" t="s">
-        <v>515</v>
-      </c>
-      <c r="D56" s="93" t="s">
+      <c r="B56" s="86" t="s">
+        <v>491</v>
+      </c>
+      <c r="C56" s="86" t="s">
+        <v>501</v>
+      </c>
+      <c r="D56" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="96" t="s">
+      <c r="E56" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="97" t="s">
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="I56" s="97" t="s">
+      <c r="I56" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="97" t="s">
+      <c r="J56" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="K56" s="99"/>
+      <c r="K56" s="83"/>
     </row>
     <row r="57" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="93" t="s">
+      <c r="B57" s="86"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="96" t="s">
+      <c r="E57" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="97"/>
-      <c r="I57" s="97"/>
-      <c r="J57" s="97"/>
-      <c r="K57" s="99"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="83"/>
     </row>
     <row r="58" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B58" s="95" t="s">
-        <v>504</v>
-      </c>
-      <c r="C58" s="95" t="s">
-        <v>516</v>
-      </c>
-      <c r="D58" s="93" t="s">
+      <c r="B58" s="86" t="s">
+        <v>490</v>
+      </c>
+      <c r="C58" s="86" t="s">
+        <v>502</v>
+      </c>
+      <c r="D58" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="96" t="s">
+      <c r="E58" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="96"/>
-      <c r="G58" s="96"/>
-      <c r="H58" s="97" t="s">
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="I58" s="98" t="s">
+      <c r="I58" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="J58" s="98" t="s">
+      <c r="J58" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="K58" s="99"/>
+      <c r="K58" s="83"/>
     </row>
     <row r="59" spans="2:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B59" s="95"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="93" t="s">
+      <c r="B59" s="86"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="E59" s="96" t="s">
+      <c r="E59" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="96"/>
-      <c r="G59" s="96"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="97" t="s">
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="J59" s="97" t="s">
+      <c r="J59" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="K59" s="99"/>
+      <c r="K59" s="83"/>
     </row>
     <row r="60" spans="2:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="B60" s="95"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="93" t="s">
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="96" t="s">
+      <c r="E60" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="F60" s="96"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="97"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="99"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="83"/>
     </row>
     <row r="61" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="93" t="s">
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="E61" s="96" t="s">
+      <c r="E61" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="F61" s="96"/>
-      <c r="G61" s="96"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
-      <c r="J61" s="97"/>
-      <c r="K61" s="99"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="83"/>
     </row>
     <row r="62" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B62" s="95"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="93" t="s">
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="E62" s="96" t="s">
+      <c r="E62" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="F62" s="96"/>
-      <c r="G62" s="96"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="98" t="s">
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="J62" s="98" t="s">
+      <c r="J62" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="K62" s="99"/>
+      <c r="K62" s="83"/>
     </row>
     <row r="63" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B63" s="95"/>
-      <c r="C63" s="95" t="s">
-        <v>519</v>
-      </c>
-      <c r="D63" s="96" t="s">
+      <c r="B63" s="86"/>
+      <c r="C63" s="86" t="s">
+        <v>505</v>
+      </c>
+      <c r="D63" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="96" t="s">
+      <c r="E63" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="96"/>
-      <c r="G63" s="96"/>
-      <c r="H63" s="97" t="s">
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="I63" s="98" t="s">
+      <c r="I63" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="J63" s="98" t="s">
+      <c r="J63" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="K63" s="99"/>
+      <c r="K63" s="83"/>
     </row>
     <row r="64" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="96" t="s">
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="E64" s="96" t="s">
+      <c r="E64" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="F64" s="96"/>
-      <c r="G64" s="96"/>
-      <c r="H64" s="97"/>
-      <c r="I64" s="98" t="s">
+      <c r="F64" s="81"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="J64" s="98" t="s">
+      <c r="J64" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="K64" s="99"/>
+      <c r="K64" s="83"/>
     </row>
     <row r="65" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B65" s="95"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="96" t="s">
+      <c r="B65" s="86"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="E65" s="96" t="s">
+      <c r="E65" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="F65" s="96"/>
-      <c r="G65" s="96"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="98" t="s">
+      <c r="F65" s="81"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="98" t="s">
+      <c r="J65" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="K65" s="99"/>
+      <c r="K65" s="83"/>
     </row>
     <row r="66" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B66" s="95"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="96" t="s">
+      <c r="B66" s="86"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="E66" s="96" t="s">
+      <c r="E66" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="F66" s="96"/>
-      <c r="G66" s="96"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="98"/>
-      <c r="J66" s="98"/>
-      <c r="K66" s="99"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="82"/>
+      <c r="K66" s="83"/>
     </row>
     <row r="67" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B67" s="95"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="96" t="s">
+      <c r="B67" s="86"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="E67" s="96" t="s">
+      <c r="E67" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="F67" s="96"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="98"/>
-      <c r="J67" s="98"/>
-      <c r="K67" s="99"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="82"/>
+      <c r="J67" s="82"/>
+      <c r="K67" s="83"/>
     </row>
     <row r="68" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B68" s="95"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="96" t="s">
+      <c r="B68" s="86"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="E68" s="96" t="s">
+      <c r="E68" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="F68" s="96"/>
-      <c r="G68" s="96"/>
-      <c r="H68" s="97"/>
-      <c r="I68" s="98"/>
-      <c r="J68" s="98"/>
-      <c r="K68" s="99"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="90"/>
+      <c r="I68" s="82"/>
+      <c r="J68" s="82"/>
+      <c r="K68" s="83"/>
     </row>
     <row r="69" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B69" s="95"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="96" t="s">
+      <c r="B69" s="86"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="E69" s="96" t="s">
+      <c r="E69" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="F69" s="96"/>
-      <c r="G69" s="96"/>
-      <c r="H69" s="97"/>
-      <c r="I69" s="98"/>
-      <c r="J69" s="98"/>
-      <c r="K69" s="99"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="82"/>
+      <c r="J69" s="82"/>
+      <c r="K69" s="83"/>
     </row>
     <row r="70" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B70" s="95" t="s">
-        <v>507</v>
-      </c>
-      <c r="C70" s="95" t="s">
-        <v>517</v>
-      </c>
-      <c r="D70" s="93" t="s">
+      <c r="B70" s="86" t="s">
+        <v>493</v>
+      </c>
+      <c r="C70" s="86" t="s">
+        <v>503</v>
+      </c>
+      <c r="D70" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="E70" s="96" t="s">
+      <c r="E70" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="F70" s="96"/>
-      <c r="G70" s="96"/>
-      <c r="H70" s="97" t="s">
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="I70" s="98"/>
-      <c r="J70" s="98"/>
-      <c r="K70" s="99"/>
+      <c r="I70" s="82"/>
+      <c r="J70" s="82"/>
+      <c r="K70" s="83"/>
     </row>
     <row r="71" spans="2:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="B71" s="95"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="93" t="s">
+      <c r="B71" s="86"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="E71" s="96" t="s">
+      <c r="E71" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="F71" s="96"/>
-      <c r="G71" s="96"/>
-      <c r="H71" s="97"/>
-      <c r="I71" s="93"/>
-      <c r="J71" s="93"/>
-      <c r="K71" s="99"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="80"/>
+      <c r="J71" s="80"/>
+      <c r="K71" s="83"/>
     </row>
     <row r="72" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B72" s="95"/>
-      <c r="C72" s="95"/>
-      <c r="D72" s="93" t="s">
+      <c r="B72" s="86"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="E72" s="96" t="s">
+      <c r="E72" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="F72" s="96"/>
-      <c r="G72" s="96"/>
-      <c r="H72" s="97"/>
-      <c r="I72" s="93"/>
-      <c r="J72" s="93"/>
-      <c r="K72" s="99"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="90"/>
+      <c r="I72" s="80"/>
+      <c r="J72" s="80"/>
+      <c r="K72" s="83"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="95"/>
-      <c r="C73" s="95"/>
-      <c r="D73" s="93" t="s">
+      <c r="B73" s="86"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="E73" s="96"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="96"/>
-      <c r="H73" s="97"/>
-      <c r="I73" s="93"/>
-      <c r="J73" s="93"/>
-      <c r="K73" s="99"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="80"/>
+      <c r="J73" s="80"/>
+      <c r="K73" s="83"/>
     </row>
     <row r="74" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B74" s="95"/>
-      <c r="C74" s="95"/>
-      <c r="D74" s="93" t="s">
+      <c r="B74" s="86"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="E74" s="96" t="s">
+      <c r="E74" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="98"/>
-      <c r="J74" s="98"/>
-      <c r="K74" s="99"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="81"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="82"/>
+      <c r="J74" s="82"/>
+      <c r="K74" s="83"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="95"/>
-      <c r="C75" s="95"/>
-      <c r="D75" s="93" t="s">
+      <c r="B75" s="86"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="98"/>
-      <c r="J75" s="98"/>
-      <c r="K75" s="99"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="82"/>
+      <c r="J75" s="82"/>
+      <c r="K75" s="83"/>
     </row>
     <row r="76" spans="2:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B76" s="100" t="s">
-        <v>508</v>
-      </c>
-      <c r="C76" s="100" t="s">
-        <v>518</v>
-      </c>
-      <c r="D76" s="93" t="s">
+      <c r="B76" s="87" t="s">
+        <v>494</v>
+      </c>
+      <c r="C76" s="87" t="s">
+        <v>504</v>
+      </c>
+      <c r="D76" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="E76" s="96" t="s">
+      <c r="E76" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="F76" s="96"/>
-      <c r="G76" s="96"/>
-      <c r="H76" s="98" t="s">
+      <c r="F76" s="81"/>
+      <c r="G76" s="81"/>
+      <c r="H76" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="I76" s="98" t="s">
+      <c r="I76" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="J76" s="98" t="s">
+      <c r="J76" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="K76" s="99"/>
+      <c r="K76" s="83"/>
     </row>
     <row r="77" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B77" s="101"/>
-      <c r="C77" s="102"/>
-      <c r="D77" s="93" t="s">
+      <c r="B77" s="88"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="E77" s="96" t="s">
+      <c r="E77" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="F77" s="96"/>
-      <c r="G77" s="96"/>
-      <c r="H77" s="98" t="s">
+      <c r="F77" s="81"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="I77" s="98" t="s">
+      <c r="I77" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="J77" s="98" t="s">
+      <c r="J77" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="K77" s="99"/>
+      <c r="K77" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B2:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="C63:C69"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="B58:B69"/>
-    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="H58:H62"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="J2:J26"/>
+    <mergeCell ref="I32:I37"/>
+    <mergeCell ref="I43:I48"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
     <mergeCell ref="H70:H75"/>
     <mergeCell ref="H63:H69"/>
     <mergeCell ref="J49:J51"/>
@@ -57883,15 +57788,15 @@
     <mergeCell ref="E32:E42"/>
     <mergeCell ref="C2:C26"/>
     <mergeCell ref="J43:J48"/>
-    <mergeCell ref="H58:H62"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="J2:J26"/>
-    <mergeCell ref="I32:I37"/>
-    <mergeCell ref="I43:I48"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="B2:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="B58:B69"/>
+    <mergeCell ref="B70:B75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -57902,10 +57807,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBF3545-7A0D-45F2-B452-ACCD15972891}">
   <dimension ref="B1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57920,753 +57825,753 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>472</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>473</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>474</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>475</v>
+        <v>432</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>461</v>
       </c>
       <c r="H1" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>447</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2" s="39">
+        <v>462</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" s="38">
         <v>0</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="38">
         <v>0</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>449</v>
+      <c r="G2" s="37" t="s">
+        <v>435</v>
       </c>
       <c r="H2" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="E3" s="39">
+      <c r="C3" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="E3" s="38">
         <v>0</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="39">
         <v>7392000</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>452</v>
+      <c r="G3" s="37" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="E4" s="39">
+      <c r="C4" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="E4" s="38">
         <v>0</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="38">
         <v>0</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>452</v>
+      <c r="G4" s="37" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="37" t="s">
-        <v>455</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="E5" s="39">
+      <c r="C5" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="E5" s="38">
         <v>0</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <v>0</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>452</v>
+      <c r="G5" s="37" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>458</v>
-      </c>
-      <c r="E6" s="39">
+      <c r="C6" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="E6" s="38">
         <v>0</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <v>0</v>
       </c>
-      <c r="G6" s="38" t="s">
-        <v>452</v>
+      <c r="G6" s="37" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="37" t="s">
-        <v>459</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="E7" s="40">
+      <c r="C7" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="E7" s="39">
         <v>81312000</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="38">
         <v>0</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>452</v>
+      <c r="G7" s="37" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="37" t="s">
-        <v>461</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="E8" s="40">
+      <c r="C8" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="E8" s="39">
         <v>54208000</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="38">
         <v>0</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>452</v>
+      <c r="G8" s="37" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="E9" s="39">
+      <c r="C9" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="E9" s="38">
         <v>0</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <v>0</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>452</v>
+      <c r="G9" s="37" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="37" t="s">
-        <v>465</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="E10" s="39">
+      <c r="C10" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="E10" s="38">
         <v>0</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="38">
         <v>0</v>
       </c>
-      <c r="G10" s="38" t="s">
-        <v>452</v>
+      <c r="G10" s="37" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="E11" s="39">
+      <c r="C11" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="E11" s="38">
         <v>0</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="39">
         <v>54208000</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>452</v>
+      <c r="G11" s="37" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="E12" s="39">
+      <c r="C12" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="E12" s="38">
         <v>0</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="39">
         <v>73920000</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>452</v>
+      <c r="G12" s="37" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="E13" s="39">
+      <c r="C13" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="E13" s="38">
         <v>0</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="38">
         <v>0</v>
       </c>
-      <c r="G13" s="38" t="s">
-        <v>452</v>
+      <c r="G13" s="37" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="45"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48">
+      <c r="C14" s="44"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47">
         <f>SUM(E2:E13)</f>
         <v>135520000</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="47">
         <f>SUM(F2:F13)</f>
         <v>135520000</v>
       </c>
-      <c r="G14" s="47"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
-        <v>476</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>447</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>484</v>
-      </c>
-      <c r="E16" s="54">
+      <c r="B16" s="48" t="s">
+        <v>462</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>470</v>
+      </c>
+      <c r="E16" s="53">
         <v>0</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="55">
         <v>0</v>
       </c>
-      <c r="G16" s="53" t="s">
-        <v>479</v>
+      <c r="G16" s="52" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="52" t="s">
-        <v>450</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>451</v>
-      </c>
-      <c r="E17" s="55">
+      <c r="C17" s="51" t="s">
+        <v>436</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="E17" s="54">
         <v>0</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="55">
         <v>0</v>
       </c>
-      <c r="G17" s="53" t="s">
-        <v>479</v>
+      <c r="G17" s="52" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="E18" s="39">
+      <c r="C18" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="E18" s="38">
         <v>0</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="38">
         <v>0</v>
       </c>
-      <c r="G18" s="38" t="s">
-        <v>479</v>
+      <c r="G18" s="37" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="37" t="s">
-        <v>455</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="E19" s="39">
+      <c r="C19" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="E19" s="38">
         <v>0</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="38">
         <v>0</v>
       </c>
-      <c r="G19" s="38" t="s">
-        <v>479</v>
+      <c r="G19" s="37" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>458</v>
-      </c>
-      <c r="E20" s="39">
+      <c r="C20" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="E20" s="38">
         <v>0</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="38">
         <v>0</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>479</v>
+      <c r="G20" s="37" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="37" t="s">
-        <v>459</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>480</v>
-      </c>
-      <c r="E21" s="39">
+      <c r="C21" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="E21" s="38">
         <v>0</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="38">
         <v>0</v>
       </c>
-      <c r="G21" s="38" t="s">
-        <v>479</v>
+      <c r="G21" s="37" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="37" t="s">
-        <v>461</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="E22" s="40">
+      <c r="C22" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="E22" s="39">
         <v>660000</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="38">
         <v>0</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>479</v>
+      <c r="G22" s="37" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="E23" s="39">
+      <c r="C23" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="E23" s="38">
         <v>0</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="38">
         <v>0</v>
       </c>
-      <c r="G23" s="38" t="s">
-        <v>479</v>
+      <c r="G23" s="37" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="57" t="s">
-        <v>481</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>482</v>
-      </c>
-      <c r="E24" s="59">
+      <c r="C24" s="56" t="s">
+        <v>467</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>468</v>
+      </c>
+      <c r="E24" s="58">
         <v>0</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="58">
         <v>0</v>
       </c>
-      <c r="G24" s="58" t="s">
-        <v>479</v>
+      <c r="G24" s="57" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="E25" s="38">
+        <v>0</v>
+      </c>
+      <c r="F25" s="38">
+        <v>0</v>
+      </c>
+      <c r="G25" s="37" t="s">
         <v>465</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="E25" s="39">
-        <v>0</v>
-      </c>
-      <c r="F25" s="39">
-        <v>0</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="E26" s="39">
+      <c r="C26" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="E26" s="38">
         <v>0</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="38">
         <v>0</v>
       </c>
-      <c r="G26" s="38" t="s">
-        <v>479</v>
+      <c r="G26" s="37" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="E27" s="39">
+      <c r="C27" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="E27" s="38">
         <v>0</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="39">
         <v>660000</v>
       </c>
-      <c r="G27" s="38" t="s">
-        <v>479</v>
+      <c r="G27" s="37" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="E28" s="39">
+      <c r="C28" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="E28" s="38">
         <v>0</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="38">
         <v>0</v>
       </c>
-      <c r="G28" s="38" t="s">
-        <v>479</v>
+      <c r="G28" s="37" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="49" t="s">
-        <v>476</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>447</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="E30" s="39">
+      <c r="B30" s="48" t="s">
+        <v>462</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="E30" s="38">
         <v>0</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="38">
         <v>0</v>
       </c>
-      <c r="G30" s="38" t="s">
-        <v>483</v>
+      <c r="G30" s="37" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="E31" s="39">
+      <c r="C31" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="E31" s="38">
         <v>0</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="39">
         <v>990000</v>
       </c>
-      <c r="G31" s="38" t="s">
-        <v>483</v>
+      <c r="G31" s="37" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="E32" s="39">
+      <c r="C32" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="E32" s="38">
         <v>0</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="38">
         <v>0</v>
       </c>
-      <c r="G32" s="38" t="s">
-        <v>483</v>
+      <c r="G32" s="37" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="37" t="s">
-        <v>455</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="E33" s="39">
+      <c r="C33" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="E33" s="38">
         <v>0</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="38">
         <v>0</v>
       </c>
-      <c r="G33" s="38" t="s">
-        <v>483</v>
+      <c r="G33" s="37" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>458</v>
-      </c>
-      <c r="E34" s="39">
+      <c r="C34" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="E34" s="38">
         <v>0</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="38">
         <v>0</v>
       </c>
-      <c r="G34" s="38" t="s">
-        <v>483</v>
+      <c r="G34" s="37" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="37" t="s">
-        <v>459</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>480</v>
-      </c>
-      <c r="E35" s="40">
+      <c r="C35" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="E35" s="39">
         <v>10890000</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="38">
         <v>0</v>
       </c>
-      <c r="G35" s="38" t="s">
-        <v>483</v>
+      <c r="G35" s="37" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="37" t="s">
-        <v>461</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="E36" s="40">
+      <c r="C36" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="E36" s="39">
         <v>6600000</v>
       </c>
-      <c r="F36" s="39">
+      <c r="F36" s="38">
         <v>0</v>
       </c>
-      <c r="G36" s="38" t="s">
-        <v>483</v>
+      <c r="G36" s="37" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="E37" s="39">
+      <c r="C37" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="E37" s="38">
         <v>0</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="38">
         <v>0</v>
       </c>
-      <c r="G37" s="38" t="s">
-        <v>483</v>
+      <c r="G37" s="37" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="57" t="s">
-        <v>481</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>482</v>
-      </c>
-      <c r="E38" s="59">
+      <c r="C38" s="56" t="s">
+        <v>467</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>468</v>
+      </c>
+      <c r="E38" s="58">
         <v>0</v>
       </c>
-      <c r="F38" s="59">
+      <c r="F38" s="58">
         <v>0</v>
       </c>
-      <c r="G38" s="58" t="s">
-        <v>483</v>
+      <c r="G38" s="57" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="37" t="s">
-        <v>465</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="E39" s="39">
+      <c r="C39" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="E39" s="38">
         <v>0</v>
       </c>
-      <c r="F39" s="39">
+      <c r="F39" s="38">
         <v>0</v>
       </c>
-      <c r="G39" s="38" t="s">
-        <v>483</v>
+      <c r="G39" s="37" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="E40" s="39">
+      <c r="C40" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="E40" s="38">
         <v>0</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="39">
         <v>6600000</v>
       </c>
-      <c r="G40" s="38" t="s">
-        <v>483</v>
+      <c r="G40" s="37" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="E41" s="39">
+      <c r="C41" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="E41" s="38">
         <v>0</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F41" s="39">
         <v>9900000</v>
       </c>
-      <c r="G41" s="38" t="s">
-        <v>483</v>
+      <c r="G41" s="37" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="E42" s="38">
+        <v>0</v>
+      </c>
+      <c r="F42" s="38">
+        <v>0</v>
+      </c>
+      <c r="G42" s="37" t="s">
         <v>469</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="E42" s="39">
-        <v>0</v>
-      </c>
-      <c r="F42" s="39">
-        <v>0</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="61" t="s">
-        <v>487</v>
-      </c>
-      <c r="D44" s="62" t="s">
-        <v>482</v>
-      </c>
-      <c r="E44" s="63">
+      <c r="C44" s="60" t="s">
+        <v>473</v>
+      </c>
+      <c r="D44" s="61" t="s">
+        <v>468</v>
+      </c>
+      <c r="E44" s="62">
         <v>0</v>
       </c>
-      <c r="F44" s="64">
+      <c r="F44" s="63">
         <v>202513636</v>
       </c>
-      <c r="G44" s="65">
+      <c r="G44" s="64">
         <v>4120030864</v>
       </c>
       <c r="H44" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="61" t="s">
-        <v>488</v>
-      </c>
-      <c r="D45" s="62" t="s">
-        <v>489</v>
-      </c>
-      <c r="E45" s="64">
+      <c r="C45" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>475</v>
+      </c>
+      <c r="E45" s="63">
         <v>141759545</v>
       </c>
-      <c r="F45" s="63">
+      <c r="F45" s="62">
         <v>0</v>
       </c>
-      <c r="G45" s="65">
+      <c r="G45" s="64">
         <v>4120030864</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="66">
+      <c r="E46" s="65">
         <f>F44-E45</f>
         <v>60754091</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="I46" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -58677,102 +58582,102 @@
       <c r="G47" s="6"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="49"/>
-      <c r="C48" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="D48" s="68" t="s">
-        <v>482</v>
-      </c>
-      <c r="E48" s="69">
+      <c r="B48" s="48"/>
+      <c r="C48" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="D48" s="67" t="s">
+        <v>468</v>
+      </c>
+      <c r="E48" s="68">
         <v>202513636</v>
       </c>
-      <c r="F48" s="70">
+      <c r="F48" s="69">
         <v>0</v>
       </c>
-      <c r="G48" s="71">
+      <c r="G48" s="70">
         <v>4120038288</v>
       </c>
       <c r="H48" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="49"/>
-      <c r="C49" s="67" t="s">
-        <v>490</v>
-      </c>
-      <c r="D49" s="68" t="s">
-        <v>489</v>
-      </c>
-      <c r="E49" s="70">
+      <c r="B49" s="48"/>
+      <c r="C49" s="66" t="s">
+        <v>476</v>
+      </c>
+      <c r="D49" s="67" t="s">
+        <v>475</v>
+      </c>
+      <c r="E49" s="69">
         <v>0</v>
       </c>
-      <c r="F49" s="69">
+      <c r="F49" s="68">
         <v>141759545</v>
       </c>
-      <c r="G49" s="71">
+      <c r="G49" s="70">
         <v>4120038288</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F50" s="60">
+      <c r="F50" s="59">
         <f>E48-F49</f>
         <v>60754091</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>492</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="E53" s="39">
+        <v>478</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="E53" s="38">
         <v>0</v>
       </c>
-      <c r="F53" s="40">
+      <c r="F53" s="39">
         <v>682000</v>
       </c>
-      <c r="G53" s="38" t="s">
-        <v>493</v>
+      <c r="G53" s="37" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="37" t="s">
-        <v>459</v>
-      </c>
-      <c r="D54" s="72" t="s">
-        <v>460</v>
-      </c>
-      <c r="E54" s="40">
+      <c r="C54" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="D54" s="71" t="s">
+        <v>446</v>
+      </c>
+      <c r="E54" s="39">
         <v>7502000</v>
       </c>
-      <c r="F54" s="39">
+      <c r="F54" s="38">
         <v>0</v>
       </c>
-      <c r="G54" s="38" t="s">
-        <v>493</v>
+      <c r="G54" s="37" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="D55" s="72" t="s">
-        <v>494</v>
-      </c>
-      <c r="E55" s="39">
+      <c r="C55" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D55" s="71" t="s">
+        <v>480</v>
+      </c>
+      <c r="E55" s="38">
         <v>0</v>
       </c>
-      <c r="F55" s="40">
+      <c r="F55" s="39">
         <v>6820000</v>
       </c>
-      <c r="G55" s="38" t="s">
-        <v>493</v>
+      <c r="G55" s="37" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -58795,50 +58700,50 @@
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>306</v>
+      <c r="B2" s="23" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
+      <c r="B3" s="23"/>
       <c r="C3" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="23"/>
       <c r="D4" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
+      <c r="B5" s="23"/>
       <c r="D5" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
+      <c r="B6" s="23"/>
       <c r="E6" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
+      <c r="B7" s="23"/>
       <c r="E7" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
+      <c r="B9" s="23"/>
       <c r="D9" s="6" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -58847,7 +58752,7 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
+      <c r="B10" s="23"/>
       <c r="D10" s="6" t="s">
         <v>240</v>
       </c>
@@ -58858,9 +58763,9 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
+      <c r="B11" s="23"/>
       <c r="D11" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -58869,9 +58774,9 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
+      <c r="B12" s="23"/>
       <c r="D12" s="6" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -58881,32 +58786,32 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -58917,87 +58822,87 @@
     </row>
     <row r="19" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D20" s="6" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D21" s="6" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D22" s="6" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
+      <c r="D23" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
+      <c r="D24" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="31"/>
-      <c r="E25" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
     </row>
     <row r="26" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="31"/>
-      <c r="E26" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="31"/>
-      <c r="E27" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
+      <c r="D28" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="6" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -59008,126 +58913,126 @@
     </row>
     <row r="30" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D30" s="6" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E31" s="6" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="3:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F32" s="6" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="4:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F33" s="6" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="4:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F34" s="6" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="4:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E35" s="6" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="4:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E36" s="6" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="4:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D37" s="6" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="4:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="30" t="s">
-        <v>502</v>
+      <c r="D38" s="29" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="4:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D39" s="6" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="4:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E40" s="6" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="4:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E41" s="6" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="4:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D42" s="6" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="4:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D43" s="6" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="4:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D44" s="6" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="4:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E45" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="L45" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
+        <v>338</v>
+      </c>
+      <c r="L45" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
     </row>
     <row r="46" spans="4:21" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E46" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="L46" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
+        <v>339</v>
+      </c>
+      <c r="L46" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
     </row>
     <row r="47" spans="4:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="4:21" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="31" t="s">
-        <v>328</v>
+      <c r="D48" s="30" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -59137,7 +59042,7 @@
     </row>
     <row r="51" spans="3:9" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -59147,88 +59052,88 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
+      <c r="D52" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
     </row>
     <row r="53" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
+      <c r="D53" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
     </row>
     <row r="54" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="31"/>
-      <c r="E54" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
     </row>
     <row r="55" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="31"/>
-      <c r="E55" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="3:9" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D56" s="6" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="3:9" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D57" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="3:9" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E58" s="6" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="3:9" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="30" t="s">
-        <v>393</v>
+      <c r="D59" s="29" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="60" spans="3:9" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E60" s="6" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="3:9" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E61" s="6" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62" spans="3:9" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E62" s="6" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" spans="3:9" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D63" s="31" t="s">
-        <v>328</v>
+      <c r="D63" s="30" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="64" spans="3:9" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D64" s="6" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="3:9" collapsed="1" x14ac:dyDescent="0.25">
@@ -59245,7 +59150,7 @@
     <row r="66" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C66" s="6"/>
       <c r="D66" s="6" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -59255,122 +59160,122 @@
     </row>
     <row r="67" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="3:9" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D78" s="31" t="s">
-        <v>392</v>
+      <c r="D78" s="30" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D85" s="31" t="s">
-        <v>437</v>
+      <c r="D85" s="30" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="86" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D86" s="31" t="s">
-        <v>438</v>
+      <c r="D86" s="30" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D87" s="31" t="s">
-        <v>439</v>
+      <c r="D87" s="30" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D88" s="31" t="s">
-        <v>440</v>
+      <c r="D88" s="30" t="s">
+        <v>426</v>
       </c>
     </row>
-    <row r="89" spans="4:4" s="73" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D89" s="73" t="s">
-        <v>499</v>
+    <row r="89" spans="4:4" s="72" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D89" s="72" t="s">
+        <v>485</v>
       </c>
     </row>
-    <row r="90" spans="4:4" s="73" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D90" s="73" t="s">
-        <v>500</v>
+    <row r="90" spans="4:4" s="72" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D90" s="72" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -59416,9 +59321,9 @@
   <cols>
     <col min="1" max="4" width="2.85546875" customWidth="1"/>
     <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" style="33"/>
+    <col min="11" max="11" width="5.28515625" style="32"/>
     <col min="19" max="20" width="2.85546875" customWidth="1"/>
-    <col min="21" max="21" width="5.28515625" style="33"/>
+    <col min="21" max="21" width="5.28515625" style="32"/>
     <col min="29" max="36" width="2.85546875" customWidth="1"/>
     <col min="42" max="45" width="2.85546875" customWidth="1"/>
   </cols>
@@ -59428,57 +59333,57 @@
         <v>155</v>
       </c>
       <c r="AG1" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K8" s="33">
+      <c r="K8" s="32">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K9" s="33">
+      <c r="K9" s="32">
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K10" s="33">
+      <c r="K10" s="32">
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K11" s="33">
+      <c r="K11" s="32">
         <v>4</v>
       </c>
       <c r="L11" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K12" s="33">
+      <c r="K12" s="32">
         <v>5</v>
       </c>
       <c r="L12" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K15" s="33">
+      <c r="K15" s="32">
         <v>1</v>
       </c>
       <c r="L15" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="33">
+      <c r="U15" s="32">
         <v>6</v>
       </c>
       <c r="V15" t="s">
@@ -59486,179 +59391,179 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K16" s="33">
+      <c r="K16" s="32">
         <v>2</v>
       </c>
       <c r="L16" t="s">
-        <v>414</v>
-      </c>
-      <c r="U16" s="33">
+        <v>400</v>
+      </c>
+      <c r="U16" s="32">
         <v>7</v>
       </c>
       <c r="V16" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K17" s="33">
+      <c r="K17" s="32">
         <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>415</v>
-      </c>
-      <c r="U17" s="33">
+        <v>401</v>
+      </c>
+      <c r="U17" s="32">
         <v>8</v>
       </c>
       <c r="V17" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K18" s="33">
+      <c r="K18" s="32">
         <v>4</v>
       </c>
       <c r="L18" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K19" s="33">
+      <c r="K19" s="32">
         <v>5</v>
       </c>
       <c r="L19" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K22" s="33">
+      <c r="K22" s="32">
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K29" s="33">
+      <c r="K29" s="32">
         <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>27</v>
       </c>
-      <c r="U29" s="33">
+      <c r="U29" s="32">
         <v>6</v>
       </c>
       <c r="V29" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K30" s="33">
+      <c r="K30" s="32">
         <v>2</v>
       </c>
       <c r="L30" t="s">
-        <v>421</v>
-      </c>
-      <c r="U30" s="33">
+        <v>407</v>
+      </c>
+      <c r="U30" s="32">
         <v>7</v>
       </c>
       <c r="V30" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K31" s="33">
+      <c r="K31" s="32">
         <v>3</v>
       </c>
       <c r="L31" t="s">
         <v>38</v>
       </c>
-      <c r="U31" s="33">
+      <c r="U31" s="32">
         <v>8</v>
       </c>
       <c r="V31" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K32" s="33">
+      <c r="K32" s="32">
         <v>4</v>
       </c>
       <c r="L32" t="s">
-        <v>422</v>
-      </c>
-      <c r="U32" s="33">
+        <v>408</v>
+      </c>
+      <c r="U32" s="32">
         <v>9</v>
       </c>
       <c r="V32" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K33" s="33">
+      <c r="K33" s="32">
         <v>5</v>
       </c>
       <c r="L33" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K36" s="33">
+      <c r="K36" s="32">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K37" s="33">
+      <c r="K37" s="32">
         <v>2</v>
       </c>
       <c r="L37" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K38" s="33">
+      <c r="K38" s="32">
         <v>3</v>
       </c>
       <c r="L38" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K39" s="33">
+      <c r="K39" s="32">
         <v>4</v>
       </c>
       <c r="L39" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K40" s="33">
+      <c r="K40" s="32">
         <v>5</v>
       </c>
       <c r="L40" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K43" s="33">
+      <c r="K43" s="32">
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K44" s="33">
+      <c r="K44" s="32">
         <v>2</v>
       </c>
       <c r="L44" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K45" s="33">
+      <c r="K45" s="32">
         <v>3</v>
       </c>
       <c r="L45" t="s">
@@ -59666,7 +59571,7 @@
       </c>
     </row>
     <row r="49" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K49" s="33">
+      <c r="K49" s="32">
         <v>1</v>
       </c>
       <c r="L49" t="s">
@@ -59674,7 +59579,7 @@
       </c>
     </row>
     <row r="50" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K50" s="33">
+      <c r="K50" s="32">
         <v>2</v>
       </c>
       <c r="L50" t="s">
@@ -59768,7 +59673,7 @@
     <col min="54" max="54" width="5.140625" customWidth="1"/>
     <col min="58" max="58" width="5.140625" customWidth="1"/>
     <col min="62" max="62" width="2.85546875" customWidth="1"/>
-    <col min="66" max="66" width="9.140625" style="35"/>
+    <col min="66" max="66" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="66:66" x14ac:dyDescent="0.25">
@@ -59791,6 +59696,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2F9CB5CC580EC46B5860198FEB9E710" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b91388b48bcd9a49e5c6bbe11f5107a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf9b6120-988b-41be-8da6-61dea16cb493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f067a43816ef2ddba10c3d75903eac" ns2:_="">
     <xsd:import namespace="bf9b6120-988b-41be-8da6-61dea16cb493"/>
@@ -59968,12 +59879,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43F51075-FFD6-405F-AC22-55D14EA352CC}">
   <ds:schemaRefs>
@@ -59983,6 +59888,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E84A420-778F-4F55-A086-6B0BCB72BFBC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{924F292E-FC6F-4B9B-A286-A2C1ECAE0711}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -59998,13 +59912,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E84A420-778F-4F55-A086-6B0BCB72BFBC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>